--- a/STUDIO/trunk/org.openl.rules.demo/src/org.openl.rules.demo.tutorials/Tutorial 4 - Introduction to Column Match Tables/Main.xlsx
+++ b/STUDIO/trunk/org.openl.rules.demo/src/org.openl.rules.demo.tutorials/Tutorial 4 - Introduction to Column Match Tables/Main.xlsx
@@ -2531,9 +2531,6 @@
     <xf numFmtId="3" fontId="6" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2555,6 +2552,27 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2564,30 +2582,9 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2596,6 +2593,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3010,22 +3010,22 @@
   <dimension ref="B3:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="2:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="89" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
@@ -3067,76 +3067,76 @@
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
       <c r="K11" s="4"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
       <c r="K12" s="4"/>
     </row>
     <row r="13" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="72"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
       <c r="K13" s="4"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
@@ -3201,44 +3201,44 @@
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
-      <c r="C19" s="73" t="s">
+      <c r="C19" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="73"/>
-      <c r="J19" s="73"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="72"/>
       <c r="K19" s="4"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
-      <c r="C20" s="74" t="s">
+      <c r="C20" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="74"/>
-      <c r="I20" s="74"/>
-      <c r="J20" s="74"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="73"/>
+      <c r="J20" s="73"/>
       <c r="K20" s="4"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
-      <c r="C21" s="75" t="s">
+      <c r="C21" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="D21" s="75"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="75"/>
-      <c r="I21" s="75"/>
-      <c r="J21" s="75"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="74"/>
       <c r="K21" s="4"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
@@ -3278,8 +3278,7 @@
       <c r="K24" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B3:I3"/>
+  <mergeCells count="4">
     <mergeCell ref="C8:J13"/>
     <mergeCell ref="C19:J19"/>
     <mergeCell ref="C20:J20"/>
@@ -3298,7 +3297,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:N66"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
@@ -3313,13 +3312,13 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
@@ -3363,24 +3362,24 @@
     </row>
     <row r="8" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
-      <c r="C8" s="77" t="s">
+      <c r="C8" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
       <c r="I8" s="9"/>
     </row>
     <row r="9" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="9"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="78"/>
-      <c r="H9" s="78"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="84"/>
       <c r="I9" s="9"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
@@ -3405,104 +3404,104 @@
     </row>
     <row r="12" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
-      <c r="C12" s="79" t="s">
+      <c r="C12" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="77"/>
       <c r="I12" s="9"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="9"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="80"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
       <c r="I13" s="9"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="80"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="80"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
       <c r="I14" s="9"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="9"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="80"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="78"/>
       <c r="I15" s="9"/>
     </row>
     <row r="16" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="80"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="78"/>
       <c r="I16" s="9"/>
     </row>
     <row r="17" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="9"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="80"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
       <c r="I17" s="9"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="80"/>
-      <c r="G18" s="80"/>
-      <c r="H18" s="80"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
       <c r="I18" s="9"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="80"/>
-      <c r="H19" s="80"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="78"/>
       <c r="I19" s="9"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="80"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="78"/>
       <c r="I20" s="9"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="9"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="81"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="81"/>
-      <c r="H21" s="81"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="79"/>
       <c r="I21" s="9"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
@@ -3527,74 +3526,74 @@
     </row>
     <row r="24" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
-      <c r="C24" s="79" t="s">
+      <c r="C24" s="77" t="s">
         <v>95</v>
       </c>
-      <c r="D24" s="79"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="79"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="77"/>
       <c r="I24" s="9"/>
     </row>
     <row r="25" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="9"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="80"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="80"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="78"/>
       <c r="I25" s="9"/>
     </row>
     <row r="26" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="9"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="80"/>
-      <c r="E26" s="80"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="80"/>
-      <c r="H26" s="80"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="78"/>
       <c r="I26" s="9"/>
     </row>
     <row r="27" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="9"/>
-      <c r="C27" s="80"/>
-      <c r="D27" s="80"/>
-      <c r="E27" s="80"/>
-      <c r="F27" s="80"/>
-      <c r="G27" s="80"/>
-      <c r="H27" s="80"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="78"/>
       <c r="I27" s="9"/>
     </row>
     <row r="28" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="9"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="80"/>
-      <c r="E28" s="80"/>
-      <c r="F28" s="80"/>
-      <c r="G28" s="80"/>
-      <c r="H28" s="80"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="78"/>
+      <c r="E28" s="78"/>
+      <c r="F28" s="78"/>
+      <c r="G28" s="78"/>
+      <c r="H28" s="78"/>
       <c r="I28" s="9"/>
     </row>
     <row r="29" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="9"/>
-      <c r="C29" s="80"/>
-      <c r="D29" s="80"/>
-      <c r="E29" s="80"/>
-      <c r="F29" s="80"/>
-      <c r="G29" s="80"/>
-      <c r="H29" s="80"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="78"/>
       <c r="I29" s="9"/>
     </row>
     <row r="30" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="9"/>
-      <c r="C30" s="81"/>
-      <c r="D30" s="81"/>
-      <c r="E30" s="81"/>
-      <c r="F30" s="81"/>
-      <c r="G30" s="81"/>
-      <c r="H30" s="81"/>
+      <c r="C30" s="79"/>
+      <c r="D30" s="79"/>
+      <c r="E30" s="79"/>
+      <c r="F30" s="79"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="79"/>
       <c r="I30" s="9"/>
     </row>
     <row r="31" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3631,14 +3630,14 @@
     </row>
     <row r="34" spans="2:14" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B34" s="9"/>
-      <c r="C34" s="82" t="s">
+      <c r="C34" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="D34" s="82"/>
-      <c r="E34" s="82"/>
-      <c r="F34" s="82"/>
-      <c r="G34" s="82"/>
-      <c r="H34" s="82"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="75"/>
       <c r="I34" s="9"/>
     </row>
     <row r="35" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3649,12 +3648,12 @@
       <c r="D35" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E35" s="83" t="s">
+      <c r="E35" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="F35" s="83"/>
-      <c r="G35" s="83"/>
-      <c r="H35" s="83"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="85"/>
+      <c r="H35" s="85"/>
       <c r="I35" s="9"/>
     </row>
     <row r="36" spans="2:14" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3665,12 +3664,12 @@
       <c r="D36" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E36" s="85" t="s">
+      <c r="E36" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="F36" s="85"/>
-      <c r="G36" s="85"/>
-      <c r="H36" s="85"/>
+      <c r="F36" s="80"/>
+      <c r="G36" s="80"/>
+      <c r="H36" s="80"/>
       <c r="I36" s="9"/>
     </row>
     <row r="37" spans="2:14" s="2" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -3823,11 +3822,11 @@
     </row>
     <row r="46" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="9"/>
-      <c r="C46" s="86" t="s">
+      <c r="C46" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="D46" s="86"/>
-      <c r="E46" s="86"/>
+      <c r="D46" s="81"/>
+      <c r="E46" s="81"/>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
@@ -3855,10 +3854,10 @@
     </row>
     <row r="49" spans="2:9" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B49" s="9"/>
-      <c r="C49" s="84" t="s">
+      <c r="C49" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="D49" s="84"/>
+      <c r="D49" s="76"/>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
@@ -3925,11 +3924,11 @@
     </row>
     <row r="55" spans="2:9" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B55" s="9"/>
-      <c r="C55" s="82" t="s">
+      <c r="C55" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="D55" s="82"/>
-      <c r="E55" s="82"/>
+      <c r="D55" s="75"/>
+      <c r="E55" s="75"/>
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
       <c r="H55" s="9"/>
@@ -4079,16 +4078,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="C8:H9"/>
+    <mergeCell ref="C12:H21"/>
+    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="E35:H35"/>
     <mergeCell ref="C55:E55"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="C24:H30"/>
     <mergeCell ref="E36:H36"/>
     <mergeCell ref="C46:E46"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="C8:H9"/>
-    <mergeCell ref="C12:H21"/>
-    <mergeCell ref="C34:H34"/>
-    <mergeCell ref="E35:H35"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:D11 D4:D7">
@@ -4110,7 +4109,7 @@
   <dimension ref="A1:K68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I57" sqref="I57"/>
+      <selection activeCell="C12" sqref="C12:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4188,26 +4187,26 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
-      <c r="C8" s="77" t="s">
+      <c r="C8" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="9"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="78"/>
-      <c r="H9" s="78"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="84"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
@@ -4238,122 +4237,122 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
-      <c r="C12" s="79" t="s">
+      <c r="C12" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="77"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" s="9"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="80"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="80"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="80"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
     </row>
     <row r="15" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="9"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="80"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="78"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
     </row>
     <row r="16" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="80"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="78"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
     </row>
     <row r="17" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="9"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="80"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
     </row>
     <row r="18" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="80"/>
-      <c r="G18" s="80"/>
-      <c r="H18" s="80"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
     </row>
     <row r="19" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="80"/>
-      <c r="H19" s="80"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="78"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="80"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="78"/>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="9"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="81"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="81"/>
-      <c r="H21" s="81"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="79"/>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
@@ -4384,38 +4383,38 @@
     </row>
     <row r="24" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
-      <c r="C24" s="79" t="s">
+      <c r="C24" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="D24" s="79"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="79"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="77"/>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
     </row>
     <row r="25" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="9"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="80"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="80"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="78"/>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
     </row>
     <row r="26" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="9"/>
-      <c r="C26" s="81"/>
-      <c r="D26" s="81"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="81"/>
-      <c r="G26" s="81"/>
-      <c r="H26" s="81"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="79"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
@@ -4446,16 +4445,16 @@
     </row>
     <row r="29" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B29" s="9"/>
-      <c r="C29" s="82" t="s">
+      <c r="C29" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="D29" s="82"/>
-      <c r="E29" s="82"/>
-      <c r="F29" s="82"/>
-      <c r="G29" s="82"/>
-      <c r="H29" s="82"/>
-      <c r="I29" s="82"/>
-      <c r="J29" s="82"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="75"/>
+      <c r="J29" s="75"/>
       <c r="K29" s="9"/>
     </row>
     <row r="30" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4469,13 +4468,13 @@
       <c r="E30" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="F30" s="83" t="s">
+      <c r="F30" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="G30" s="83"/>
-      <c r="H30" s="83"/>
-      <c r="I30" s="83"/>
-      <c r="J30" s="83"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="85"/>
+      <c r="I30" s="85"/>
+      <c r="J30" s="85"/>
       <c r="K30" s="9"/>
     </row>
     <row r="31" spans="2:11" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4489,13 +4488,13 @@
       <c r="E31" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="F31" s="85" t="s">
+      <c r="F31" s="80" t="s">
         <v>77</v>
       </c>
-      <c r="G31" s="85"/>
-      <c r="H31" s="85"/>
-      <c r="I31" s="85"/>
-      <c r="J31" s="85"/>
+      <c r="G31" s="80"/>
+      <c r="H31" s="80"/>
+      <c r="I31" s="80"/>
+      <c r="J31" s="80"/>
       <c r="K31" s="9"/>
     </row>
     <row r="32" spans="2:11" s="2" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -4726,11 +4725,11 @@
     </row>
     <row r="42" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="9"/>
-      <c r="C42" s="86" t="s">
+      <c r="C42" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="86"/>
-      <c r="E42" s="86"/>
+      <c r="D42" s="81"/>
+      <c r="E42" s="81"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
@@ -4764,11 +4763,11 @@
     </row>
     <row r="45" spans="2:11" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B45" s="9"/>
-      <c r="C45" s="84" t="s">
+      <c r="C45" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="D45" s="84"/>
-      <c r="E45" s="84"/>
+      <c r="D45" s="76"/>
+      <c r="E45" s="76"/>
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
       <c r="H45" s="9"/>
@@ -4781,10 +4780,10 @@
       <c r="C46" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D46" s="89" t="s">
+      <c r="D46" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="E46" s="89"/>
+      <c r="E46" s="88"/>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
@@ -4797,10 +4796,10 @@
       <c r="C47" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D47" s="87" t="s">
+      <c r="D47" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="E47" s="87"/>
+      <c r="E47" s="86"/>
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
@@ -4813,10 +4812,10 @@
       <c r="C48" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="87" t="s">
+      <c r="D48" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="E48" s="87"/>
+      <c r="E48" s="86"/>
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
@@ -4829,10 +4828,10 @@
       <c r="C49" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D49" s="87" t="s">
+      <c r="D49" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="E49" s="87"/>
+      <c r="E49" s="86"/>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
       <c r="H49" s="9"/>
@@ -4845,10 +4844,10 @@
       <c r="C50" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D50" s="87" t="s">
+      <c r="D50" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="E50" s="87"/>
+      <c r="E50" s="86"/>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
@@ -4861,10 +4860,10 @@
       <c r="C51" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D51" s="87" t="s">
+      <c r="D51" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="E51" s="87"/>
+      <c r="E51" s="86"/>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
       <c r="H51" s="9"/>
@@ -4877,10 +4876,10 @@
       <c r="C52" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D52" s="88" t="s">
+      <c r="D52" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="E52" s="88"/>
+      <c r="E52" s="87"/>
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
       <c r="H52" s="9"/>
@@ -4926,16 +4925,16 @@
     </row>
     <row r="56" spans="2:11" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B56" s="9"/>
-      <c r="C56" s="82" t="s">
+      <c r="C56" s="75" t="s">
         <v>102</v>
       </c>
-      <c r="D56" s="82"/>
-      <c r="E56" s="82"/>
-      <c r="F56" s="82"/>
-      <c r="G56" s="82"/>
-      <c r="H56" s="82"/>
-      <c r="I56" s="82"/>
-      <c r="J56" s="82"/>
+      <c r="D56" s="75"/>
+      <c r="E56" s="75"/>
+      <c r="F56" s="75"/>
+      <c r="G56" s="75"/>
+      <c r="H56" s="75"/>
+      <c r="I56" s="75"/>
+      <c r="J56" s="75"/>
       <c r="K56" s="9"/>
     </row>
     <row r="57" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -5202,8 +5201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:K56"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:H24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5283,26 +5282,26 @@
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
-      <c r="C8" s="77" t="s">
+      <c r="C8" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
     </row>
     <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="9"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="78"/>
-      <c r="H9" s="78"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="84"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
@@ -5333,86 +5332,86 @@
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
-      <c r="C12" s="79" t="s">
+      <c r="C12" s="77" t="s">
         <v>98</v>
       </c>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="77"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="9"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="80"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="80"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="80"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="9"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="80"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="78"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
     </row>
     <row r="16" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="80"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="78"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="9"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="80"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="79"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
@@ -5443,50 +5442,50 @@
     </row>
     <row r="21" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="9"/>
-      <c r="C21" s="79" t="s">
+      <c r="C21" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="D21" s="79"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="79"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="77"/>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
     </row>
     <row r="22" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="9"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="80"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="80"/>
-      <c r="H22" s="80"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="78"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
     </row>
     <row r="23" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="9"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="80"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="78"/>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
     </row>
     <row r="24" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
-      <c r="C24" s="81"/>
-      <c r="D24" s="81"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="81"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="79"/>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
@@ -5541,16 +5540,16 @@
     </row>
     <row r="29" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B29" s="9"/>
-      <c r="C29" s="82" t="s">
+      <c r="C29" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="D29" s="82"/>
-      <c r="E29" s="82"/>
-      <c r="F29" s="82"/>
-      <c r="G29" s="82"/>
-      <c r="H29" s="82"/>
-      <c r="I29" s="82"/>
-      <c r="J29" s="82"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="75"/>
+      <c r="J29" s="75"/>
       <c r="K29" s="9"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
@@ -5564,13 +5563,13 @@
       <c r="E30" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="F30" s="83" t="s">
+      <c r="F30" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="G30" s="83"/>
-      <c r="H30" s="83"/>
-      <c r="I30" s="83"/>
-      <c r="J30" s="83"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="85"/>
+      <c r="I30" s="85"/>
+      <c r="J30" s="85"/>
       <c r="K30" s="9"/>
     </row>
     <row r="31" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5584,13 +5583,13 @@
       <c r="E31" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="F31" s="85" t="s">
+      <c r="F31" s="80" t="s">
         <v>94</v>
       </c>
-      <c r="G31" s="85"/>
-      <c r="H31" s="85"/>
-      <c r="I31" s="85"/>
-      <c r="J31" s="85"/>
+      <c r="G31" s="80"/>
+      <c r="H31" s="80"/>
+      <c r="I31" s="80"/>
+      <c r="J31" s="80"/>
       <c r="K31" s="9"/>
     </row>
     <row r="32" spans="2:11" s="2" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -5891,16 +5890,16 @@
     </row>
     <row r="46" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B46" s="9"/>
-      <c r="C46" s="82" t="s">
+      <c r="C46" s="75" t="s">
         <v>103</v>
       </c>
-      <c r="D46" s="82"/>
-      <c r="E46" s="82"/>
-      <c r="F46" s="82"/>
-      <c r="G46" s="82"/>
-      <c r="H46" s="82"/>
-      <c r="I46" s="82"/>
-      <c r="J46" s="82"/>
+      <c r="D46" s="75"/>
+      <c r="E46" s="75"/>
+      <c r="F46" s="75"/>
+      <c r="G46" s="75"/>
+      <c r="H46" s="75"/>
+      <c r="I46" s="75"/>
+      <c r="J46" s="75"/>
       <c r="K46" s="9"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
